--- a/IRP1.xlsx
+++ b/IRP1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pato2\Desktop\U\2023-2\IRP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pato2\Desktop\U\2023-2\IPRE-IRP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAD51FC5-696C-484F-8A0A-BE14CD601BCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C76CCB79-25ED-4437-AC97-2C63F96B0E12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="756" yWindow="768" windowWidth="21624" windowHeight="11244" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="756" yWindow="768" windowWidth="21624" windowHeight="11244" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GRL" sheetId="1" r:id="rId1"/>
@@ -531,7 +531,7 @@
   </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -638,8 +638,8 @@
   </sheetPr>
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -689,6 +689,9 @@
       <c r="D2" s="2">
         <v>1428</v>
       </c>
+      <c r="E2" s="1">
+        <v>100000</v>
+      </c>
       <c r="F2" s="1">
         <v>0</v>
       </c>
@@ -972,7 +975,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
